--- a/biology/Zoologie/Carbaryl/Carbaryl.xlsx
+++ b/biology/Zoologie/Carbaryl/Carbaryl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le carbaryl  est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet insecticide, et de régulateur de croissance agissant sur la chute des fruits, et qui appartient à la famille chimique des carbamates.
@@ -512,12 +524,14 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la réglementation des produits phytopharmaceutiques :
 pour l’Union européenne : cette substance active est en révision en vue de l'inscription à l’annexe I de la directive 91/414/CEE.
 pour la France : cette substance active est autorisée dans la composition de préparations bénéficiant d’une autorisation de mise sur le marché. Toutefois, à la suite de la directive 2008/59/CE du 28 juin 2008, qui a revu à la baisse un certain nombre de limites maximales de résidus, les préparations contenant du carbaryl et ne permettant pas de respecter ces nouvelles normes, ont fait l'objet de mesures de retrait du marché.
-L'autorisation de mise sur le marché a été supprimée en France en avril 2007 pour le Carbyl, une spécialité vétérinaire contenant du Carbaryl, celui-ci ayant été jugé cancérogène.[1]
+L'autorisation de mise sur le marché a été supprimée en France en avril 2007 pour le Carbyl, une spécialité vétérinaire contenant du Carbaryl, celui-ci ayant été jugé cancérogène.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les caractéristiques physico-chimiques dont l'ordre de grandeur est indiqué ci-après, influencent les risques de transfert de cette substance active vers les eaux, et le risque de pollution des eaux :
 Hydrolyse à pH 7 : instable,
@@ -581,7 +597,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sur le plan de l’écotoxicologie, les concentrations létales 50 (CL50) dont l'ordre de grandeur est indiqué ci-après, sont observées :
 CL50 sur poissons : 0,75 mg·l-1,
@@ -614,10 +632,12 @@
           <t>Toxicité pour l’homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la toxicité pour l’Homme, la dose journalière acceptable (DJA) est de l’ordre de : 0,003 mg·kg-1·j-1.
-Une étude publiée dans le Environmental Health Perspectives[5] a établi une corrélation entre le Carbaryl et l'apparition de mélanome chez l'homme.
+Une étude publiée dans le Environmental Health Perspectives a établi une corrélation entre le Carbaryl et l'apparition de mélanome chez l'homme.
 </t>
         </is>
       </c>
